--- a/BackTest/2020-01-26 BackTest GXC.xlsx
+++ b/BackTest/2020-01-26 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-73177.22718959999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-70488.82488959999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-70488.82488959999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-70486.82488959999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-71034.74498959999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-71314.74498959999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-71381.9359896</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-71917.0757896</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-72363.3845896</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-72362.3845896</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-74895.2014896</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-72343.9958896</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-71030.9293896</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-78238.01268960001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-77985.43428960002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-77985.43428960002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-77989.43428960002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-70492.08338960001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-77559.92848960002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-77587.08828960001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-77870.73938960001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-100299.7430896</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,22 +2629,15 @@
         <v>-100399.7816896</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K68" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2872,1144 +2662,1025 @@
         <v>-100451.7816896</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>488</v>
+      </c>
+      <c r="C70" t="n">
+        <v>487</v>
+      </c>
+      <c r="D70" t="n">
+        <v>488</v>
+      </c>
+      <c r="E70" t="n">
+        <v>487</v>
+      </c>
+      <c r="F70" t="n">
+        <v>47.7465</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-100499.5281896</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>488</v>
+      </c>
+      <c r="E71" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4063.772</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-96435.7561896</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-95135.7561896</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>36.585</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-95135.7561896</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>488</v>
-      </c>
-      <c r="C70" t="n">
-        <v>487</v>
-      </c>
-      <c r="D70" t="n">
-        <v>488</v>
-      </c>
-      <c r="E70" t="n">
-        <v>487</v>
-      </c>
-      <c r="F70" t="n">
-        <v>47.7465</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-100499.5281896</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>488</v>
-      </c>
-      <c r="K70" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1585.1121</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-95135.7561896</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>492</v>
+      </c>
+      <c r="C75" t="n">
+        <v>492</v>
+      </c>
+      <c r="D75" t="n">
+        <v>492</v>
+      </c>
+      <c r="E75" t="n">
+        <v>492</v>
+      </c>
+      <c r="F75" t="n">
+        <v>341.8686</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-94793.8875896</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>492</v>
+      </c>
+      <c r="C76" t="n">
+        <v>492</v>
+      </c>
+      <c r="D76" t="n">
+        <v>492</v>
+      </c>
+      <c r="E76" t="n">
+        <v>492</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29.0141</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-94793.8875896</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>492</v>
+      </c>
+      <c r="J76" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>496</v>
+      </c>
+      <c r="C77" t="n">
+        <v>496</v>
+      </c>
+      <c r="D77" t="n">
+        <v>496</v>
+      </c>
+      <c r="E77" t="n">
+        <v>496</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-94792.78758959999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>492</v>
+      </c>
+      <c r="J77" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>496</v>
+      </c>
+      <c r="C78" t="n">
+        <v>496</v>
+      </c>
+      <c r="D78" t="n">
+        <v>496</v>
+      </c>
+      <c r="E78" t="n">
+        <v>496</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-94792.78758959999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>496</v>
+      </c>
+      <c r="J78" t="n">
+        <v>496</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>494</v>
+      </c>
+      <c r="C79" t="n">
+        <v>493</v>
+      </c>
+      <c r="D79" t="n">
+        <v>494</v>
+      </c>
+      <c r="E79" t="n">
+        <v>486.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10231.4796</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-105024.2671896</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>496</v>
+      </c>
+      <c r="J79" t="n">
+        <v>496</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="C71" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>488</v>
-      </c>
-      <c r="E71" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4063.772</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-96435.7561896</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>487</v>
-      </c>
-      <c r="K71" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>494</v>
+      </c>
+      <c r="C80" t="n">
+        <v>494</v>
+      </c>
+      <c r="D80" t="n">
+        <v>494</v>
+      </c>
+      <c r="E80" t="n">
+        <v>494</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-105023.1671896</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>493</v>
+      </c>
+      <c r="J80" t="n">
+        <v>496</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="D72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="E72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-95135.7561896</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="K72" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>494</v>
+      </c>
+      <c r="C81" t="n">
+        <v>494</v>
+      </c>
+      <c r="D81" t="n">
+        <v>494</v>
+      </c>
+      <c r="E81" t="n">
+        <v>494</v>
+      </c>
+      <c r="F81" t="n">
+        <v>651.1953</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-105023.1671896</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>496</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="C73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="D73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="E73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>36.585</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-95135.7561896</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="K73" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>494</v>
+      </c>
+      <c r="C82" t="n">
+        <v>494</v>
+      </c>
+      <c r="D82" t="n">
+        <v>494</v>
+      </c>
+      <c r="E82" t="n">
+        <v>494</v>
+      </c>
+      <c r="F82" t="n">
+        <v>68.5513</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-105023.1671896</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>494</v>
+      </c>
+      <c r="J82" t="n">
+        <v>496</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="C74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="D74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="E74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1585.1121</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-95135.7561896</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>495</v>
+      </c>
+      <c r="C83" t="n">
+        <v>495</v>
+      </c>
+      <c r="D83" t="n">
+        <v>495</v>
+      </c>
+      <c r="E83" t="n">
+        <v>495</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-105022.0671896</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>496</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>492</v>
-      </c>
-      <c r="C75" t="n">
-        <v>492</v>
-      </c>
-      <c r="D75" t="n">
-        <v>492</v>
-      </c>
-      <c r="E75" t="n">
-        <v>492</v>
-      </c>
-      <c r="F75" t="n">
-        <v>341.8686</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-94793.8875896</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>235.0787</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-105257.1458896</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>496</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>492</v>
-      </c>
-      <c r="C76" t="n">
-        <v>492</v>
-      </c>
-      <c r="D76" t="n">
-        <v>492</v>
-      </c>
-      <c r="E76" t="n">
-        <v>492</v>
-      </c>
-      <c r="F76" t="n">
-        <v>29.0141</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-94793.8875896</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>492</v>
-      </c>
-      <c r="K76" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>495</v>
+      </c>
+      <c r="C85" t="n">
+        <v>495</v>
+      </c>
+      <c r="D85" t="n">
+        <v>495</v>
+      </c>
+      <c r="E85" t="n">
+        <v>495</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-105256.0458896</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>496</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>496</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C86" t="n">
         <v>496</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D86" t="n">
         <v>496</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E86" t="n">
         <v>496</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F86" t="n">
         <v>1.1</v>
       </c>
-      <c r="G77" t="n">
-        <v>-94792.78758959999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>492</v>
-      </c>
-      <c r="K77" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="G86" t="n">
+        <v>-105254.9458896</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>496</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>496</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C87" t="n">
         <v>496</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D87" t="n">
         <v>496</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E87" t="n">
         <v>496</v>
       </c>
-      <c r="F78" t="n">
-        <v>5</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-94792.78758959999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
+      <c r="F87" t="n">
+        <v>1295</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-105254.9458896</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>496</v>
       </c>
-      <c r="K78" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>494</v>
-      </c>
-      <c r="C79" t="n">
-        <v>493</v>
-      </c>
-      <c r="D79" t="n">
-        <v>494</v>
-      </c>
-      <c r="E79" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>10231.4796</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-105024.2671896</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>497</v>
+      </c>
+      <c r="C88" t="n">
+        <v>497</v>
+      </c>
+      <c r="D88" t="n">
+        <v>497</v>
+      </c>
+      <c r="E88" t="n">
+        <v>497</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-105253.8458896</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>496</v>
       </c>
-      <c r="K79" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>494</v>
-      </c>
-      <c r="C80" t="n">
-        <v>494</v>
-      </c>
-      <c r="D80" t="n">
-        <v>494</v>
-      </c>
-      <c r="E80" t="n">
-        <v>494</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-105023.1671896</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>493</v>
-      </c>
-      <c r="K80" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2228.8484</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-107482.6942896</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>496</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>494</v>
-      </c>
-      <c r="C81" t="n">
-        <v>494</v>
-      </c>
-      <c r="D81" t="n">
-        <v>494</v>
-      </c>
-      <c r="E81" t="n">
-        <v>494</v>
-      </c>
-      <c r="F81" t="n">
-        <v>651.1953</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-105023.1671896</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>494</v>
-      </c>
-      <c r="K81" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>497</v>
+      </c>
+      <c r="C90" t="n">
+        <v>497</v>
+      </c>
+      <c r="D90" t="n">
+        <v>497</v>
+      </c>
+      <c r="E90" t="n">
+        <v>497</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-107481.6842896</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>496</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>494</v>
-      </c>
-      <c r="C82" t="n">
-        <v>494</v>
-      </c>
-      <c r="D82" t="n">
-        <v>494</v>
-      </c>
-      <c r="E82" t="n">
-        <v>494</v>
-      </c>
-      <c r="F82" t="n">
-        <v>68.5513</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-105023.1671896</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>494</v>
-      </c>
-      <c r="K82" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>497</v>
+      </c>
+      <c r="C91" t="n">
+        <v>497</v>
+      </c>
+      <c r="D91" t="n">
+        <v>497</v>
+      </c>
+      <c r="E91" t="n">
+        <v>497</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1391.7794</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-107481.6842896</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>496</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>495</v>
-      </c>
-      <c r="C83" t="n">
-        <v>495</v>
-      </c>
-      <c r="D83" t="n">
-        <v>495</v>
-      </c>
-      <c r="E83" t="n">
-        <v>495</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-105022.0671896</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>497</v>
+      </c>
+      <c r="C92" t="n">
+        <v>497</v>
+      </c>
+      <c r="D92" t="n">
+        <v>497</v>
+      </c>
+      <c r="E92" t="n">
+        <v>497</v>
+      </c>
+      <c r="F92" t="n">
+        <v>968.4248</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-107481.6842896</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>496</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>235.0787</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-105257.1458896</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>497</v>
+      </c>
+      <c r="C93" t="n">
+        <v>497</v>
+      </c>
+      <c r="D93" t="n">
+        <v>497</v>
+      </c>
+      <c r="E93" t="n">
+        <v>497</v>
+      </c>
+      <c r="F93" t="n">
+        <v>76.6858</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-107481.6842896</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>496</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>495</v>
-      </c>
-      <c r="C85" t="n">
-        <v>495</v>
-      </c>
-      <c r="D85" t="n">
-        <v>495</v>
-      </c>
-      <c r="E85" t="n">
-        <v>495</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-105256.0458896</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-107480.6842896</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>496</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>598.44404548</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-106882.24024412</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>496</v>
       </c>
-      <c r="C86" t="n">
-        <v>496</v>
-      </c>
-      <c r="D86" t="n">
-        <v>496</v>
-      </c>
-      <c r="E86" t="n">
-        <v>496</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-105254.9458896</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>496</v>
-      </c>
-      <c r="C87" t="n">
-        <v>496</v>
-      </c>
-      <c r="D87" t="n">
-        <v>496</v>
-      </c>
-      <c r="E87" t="n">
-        <v>496</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1295</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-105254.9458896</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>497</v>
-      </c>
-      <c r="C88" t="n">
-        <v>497</v>
-      </c>
-      <c r="D88" t="n">
-        <v>497</v>
-      </c>
-      <c r="E88" t="n">
-        <v>497</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-105253.8458896</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2228.8484</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-107482.6942896</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>497</v>
-      </c>
-      <c r="C90" t="n">
-        <v>497</v>
-      </c>
-      <c r="D90" t="n">
-        <v>497</v>
-      </c>
-      <c r="E90" t="n">
-        <v>497</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>497</v>
-      </c>
-      <c r="C91" t="n">
-        <v>497</v>
-      </c>
-      <c r="D91" t="n">
-        <v>497</v>
-      </c>
-      <c r="E91" t="n">
-        <v>497</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1391.7794</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>497</v>
-      </c>
-      <c r="C92" t="n">
-        <v>497</v>
-      </c>
-      <c r="D92" t="n">
-        <v>497</v>
-      </c>
-      <c r="E92" t="n">
-        <v>497</v>
-      </c>
-      <c r="F92" t="n">
-        <v>968.4248</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>497</v>
-      </c>
-      <c r="C93" t="n">
-        <v>497</v>
-      </c>
-      <c r="D93" t="n">
-        <v>497</v>
-      </c>
-      <c r="E93" t="n">
-        <v>497</v>
-      </c>
-      <c r="F93" t="n">
-        <v>76.6858</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-107480.6842896</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>598.44404548</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4034,24 +3705,21 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>496</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1.005685483870968</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4076,24 +3744,15 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4118,24 +3777,15 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4160,24 +3810,15 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4202,24 +3843,15 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4246,22 +3878,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4286,24 +3909,15 @@
         <v>-107028.16674412</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4328,24 +3942,15 @@
         <v>-107399.58054412</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4370,24 +3975,15 @@
         <v>-107399.58054412</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4414,22 +4010,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4456,22 +4043,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4498,22 +4076,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4540,22 +4109,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4582,22 +4142,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4624,22 +4175,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4666,22 +4208,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4708,22 +4241,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4750,22 +4274,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4792,22 +4307,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4834,22 +4340,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4876,22 +4373,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4918,22 +4406,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4960,22 +4439,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5000,24 +4470,15 @@
         <v>-101482.57094412</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5042,24 +4503,15 @@
         <v>-98042.57094411996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5084,24 +4536,15 @@
         <v>-98038.43574411995</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5128,22 +4571,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5168,26 +4602,17 @@
         <v>-95111.89024411995</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest GXC.xlsx
+++ b/BackTest/2020-01-26 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-73177.22718959999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-70488.82488959999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-70488.82488959999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-70486.82488959999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-71034.74498959999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-71314.74498959999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-71381.9359896</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-71917.0757896</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-72363.3845896</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-72362.3845896</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-74895.2014896</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-72343.9958896</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-71030.9293896</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-78238.01268960001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-77985.43428960002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-77985.43428960002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-77989.43428960002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-70492.08338960001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-77889.92848960002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-77559.92848960002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-77587.08828960001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-77870.73938960001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-100299.7430896</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1837,10 +1837,14 @@
         <v>-101154.9017896</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>492.9</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1870,11 +1874,19 @@
         <v>-101158.9017896</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>498</v>
+      </c>
+      <c r="J45" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1915,19 @@
         <v>-99766.7280896</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1956,19 @@
         <v>-100814.8280896</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>497.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +1997,19 @@
         <v>-101413.8280896</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>496</v>
+      </c>
+      <c r="J48" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2038,19 @@
         <v>-101338.8073896</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>494</v>
+      </c>
+      <c r="J49" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2079,19 @@
         <v>-101342.8073896</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>498</v>
+      </c>
+      <c r="J50" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2120,19 @@
         <v>-100027.8073896</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2161,19 @@
         <v>-100027.8073896</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>498</v>
+      </c>
+      <c r="J52" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2202,19 @@
         <v>-100027.8073896</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>498</v>
+      </c>
+      <c r="J53" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2477,19 @@
         <v>-100203.4212896</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2596,19 @@
         <v>-100363.4009896</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>497</v>
+      </c>
+      <c r="J63" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2637,19 @@
         <v>-100352.3009896</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>495</v>
+      </c>
+      <c r="J64" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2678,19 @@
         <v>-100363.2009896</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>496</v>
+      </c>
+      <c r="J65" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2719,19 @@
         <v>-100363.2009896</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2760,19 @@
         <v>-100373.2009896</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2801,19 @@
         <v>-100399.7816896</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2842,19 @@
         <v>-100451.7816896</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2883,19 @@
         <v>-100499.5281896</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>488</v>
+      </c>
+      <c r="J70" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2924,19 @@
         <v>-96435.7561896</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>487</v>
+      </c>
+      <c r="J71" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,15 +2965,19 @@
         <v>-95135.7561896</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>487.9</v>
       </c>
       <c r="J72" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>492.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,17 +3006,17 @@
         <v>-95135.7561896</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>489.4</v>
       </c>
       <c r="J73" t="n">
-        <v>487.9</v>
+        <v>492.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2839,17 +3047,17 @@
         <v>-95135.7561896</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>489.4</v>
       </c>
       <c r="J74" t="n">
-        <v>487.9</v>
+        <v>492.9</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2880,15 +3088,19 @@
         <v>-94793.8875896</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>489.4</v>
       </c>
       <c r="J75" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+        <v>492.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,17 +3129,17 @@
         <v>-94793.8875896</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>492</v>
       </c>
       <c r="J76" t="n">
-        <v>489.4</v>
+        <v>492.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2958,17 +3170,17 @@
         <v>-94792.78758959999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>492</v>
       </c>
       <c r="J77" t="n">
-        <v>489.4</v>
+        <v>492.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -2999,15 +3211,19 @@
         <v>-94792.78758959999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>496</v>
       </c>
       <c r="J78" t="n">
-        <v>496</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+        <v>492.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3036,17 +3252,17 @@
         <v>-105024.2671896</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>496</v>
       </c>
       <c r="J79" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3077,13 +3293,13 @@
         <v>-105023.1671896</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>493</v>
       </c>
       <c r="J80" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3118,11 +3334,13 @@
         <v>-105023.1671896</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>494</v>
+      </c>
       <c r="J81" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3157,13 +3375,13 @@
         <v>-105023.1671896</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>494</v>
       </c>
       <c r="J82" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3198,11 +3416,13 @@
         <v>-105022.0671896</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>494</v>
+      </c>
       <c r="J83" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3237,11 +3457,13 @@
         <v>-105257.1458896</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>495</v>
+      </c>
       <c r="J84" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3276,11 +3498,13 @@
         <v>-105256.0458896</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>490.1</v>
+      </c>
       <c r="J85" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3315,11 +3539,13 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>495</v>
+      </c>
       <c r="J86" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3354,11 +3580,13 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>496</v>
+      </c>
       <c r="J87" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3393,11 +3621,13 @@
         <v>-105253.8458896</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>496</v>
+      </c>
       <c r="J88" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3432,11 +3662,13 @@
         <v>-107482.6942896</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>497</v>
+      </c>
       <c r="J89" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3471,11 +3703,13 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>493.1</v>
+      </c>
       <c r="J90" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3510,11 +3744,13 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>497</v>
+      </c>
       <c r="J91" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3549,11 +3785,13 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>497</v>
+      </c>
       <c r="J92" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3588,11 +3826,13 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>497</v>
+      </c>
       <c r="J93" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3627,11 +3867,13 @@
         <v>-107480.6842896</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>497</v>
+      </c>
       <c r="J94" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3670,7 +3912,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3705,19 +3947,19 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>496</v>
+        <v>492.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.005685483870968</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
     </row>
@@ -3744,11 +3986,17 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3777,11 +4025,17 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3810,11 +4064,17 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3843,11 +4103,17 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3879,8 +4145,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3909,11 +4181,17 @@
         <v>-107028.16674412</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3942,11 +4220,17 @@
         <v>-107399.58054412</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3975,11 +4259,17 @@
         <v>-107399.58054412</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4011,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4044,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4077,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4110,8 +4418,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4143,8 +4457,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4176,8 +4496,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4209,8 +4535,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4242,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4275,8 +4613,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4308,8 +4652,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4341,8 +4691,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4374,8 +4730,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4407,8 +4769,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4440,8 +4808,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4470,11 +4844,17 @@
         <v>-101482.57094412</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4883,17 @@
         <v>-98042.57094411996</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4536,11 +4922,17 @@
         <v>-98038.43574411995</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4572,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4602,17 +5000,23 @@
         <v>-95111.89024411995</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest GXC.xlsx
+++ b/BackTest/2020-01-26 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-73177.22718959999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-70488.82488959999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-71034.74498959999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-71314.74498959999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-71381.9359896</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1837,14 +1837,10 @@
         <v>-101154.9017896</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>492.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1874,19 +1870,11 @@
         <v>-101158.9017896</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>498</v>
-      </c>
-      <c r="J45" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1903,11 @@
         <v>-99766.7280896</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1936,11 @@
         <v>-100814.8280896</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>497.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1997,19 +1969,11 @@
         <v>-101413.8280896</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>496</v>
-      </c>
-      <c r="J48" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2038,19 +2002,11 @@
         <v>-101338.8073896</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>494</v>
-      </c>
-      <c r="J49" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2079,19 +2035,11 @@
         <v>-101342.8073896</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>498</v>
-      </c>
-      <c r="J50" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2120,19 +2068,11 @@
         <v>-100027.8073896</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2161,19 +2101,11 @@
         <v>-100027.8073896</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>498</v>
-      </c>
-      <c r="J52" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2202,19 +2134,11 @@
         <v>-100027.8073896</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>498</v>
-      </c>
-      <c r="J53" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2246,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2285,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2477,19 +2365,11 @@
         <v>-100203.4212896</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2521,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2560,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2596,19 +2464,11 @@
         <v>-100363.4009896</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>497</v>
-      </c>
-      <c r="J63" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2637,19 +2497,11 @@
         <v>-100352.3009896</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>495</v>
-      </c>
-      <c r="J64" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2678,19 +2530,11 @@
         <v>-100363.2009896</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>496</v>
-      </c>
-      <c r="J65" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2719,19 +2563,11 @@
         <v>-100363.2009896</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2760,19 +2596,11 @@
         <v>-100373.2009896</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2801,19 +2629,11 @@
         <v>-100399.7816896</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2842,19 +2662,11 @@
         <v>-100451.7816896</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2888,12 +2700,10 @@
       <c r="I70" t="n">
         <v>488</v>
       </c>
-      <c r="J70" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2929,9 +2739,7 @@
       <c r="I71" t="n">
         <v>487</v>
       </c>
-      <c r="J71" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,9 +2778,7 @@
       <c r="I72" t="n">
         <v>487.9</v>
       </c>
-      <c r="J72" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,9 +2817,7 @@
       <c r="I73" t="n">
         <v>489.4</v>
       </c>
-      <c r="J73" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,9 +2856,7 @@
       <c r="I74" t="n">
         <v>489.4</v>
       </c>
-      <c r="J74" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,9 +2895,7 @@
       <c r="I75" t="n">
         <v>489.4</v>
       </c>
-      <c r="J75" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,9 +2934,7 @@
       <c r="I76" t="n">
         <v>492</v>
       </c>
-      <c r="J76" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,9 +2973,7 @@
       <c r="I77" t="n">
         <v>492</v>
       </c>
-      <c r="J77" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,9 +3012,7 @@
       <c r="I78" t="n">
         <v>496</v>
       </c>
-      <c r="J78" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3257,9 +3051,7 @@
       <c r="I79" t="n">
         <v>496</v>
       </c>
-      <c r="J79" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,9 +3090,7 @@
       <c r="I80" t="n">
         <v>493</v>
       </c>
-      <c r="J80" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,9 +3129,7 @@
       <c r="I81" t="n">
         <v>494</v>
       </c>
-      <c r="J81" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,9 +3168,7 @@
       <c r="I82" t="n">
         <v>494</v>
       </c>
-      <c r="J82" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,9 +3207,7 @@
       <c r="I83" t="n">
         <v>494</v>
       </c>
-      <c r="J83" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,9 +3246,7 @@
       <c r="I84" t="n">
         <v>495</v>
       </c>
-      <c r="J84" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,9 +3285,7 @@
       <c r="I85" t="n">
         <v>490.1</v>
       </c>
-      <c r="J85" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,9 +3324,7 @@
       <c r="I86" t="n">
         <v>495</v>
       </c>
-      <c r="J86" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,9 +3363,7 @@
       <c r="I87" t="n">
         <v>496</v>
       </c>
-      <c r="J87" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,9 +3402,7 @@
       <c r="I88" t="n">
         <v>496</v>
       </c>
-      <c r="J88" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,9 +3441,7 @@
       <c r="I89" t="n">
         <v>497</v>
       </c>
-      <c r="J89" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,9 +3480,7 @@
       <c r="I90" t="n">
         <v>493.1</v>
       </c>
-      <c r="J90" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,9 +3519,7 @@
       <c r="I91" t="n">
         <v>497</v>
       </c>
-      <c r="J91" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,9 +3558,7 @@
       <c r="I92" t="n">
         <v>497</v>
       </c>
-      <c r="J92" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,9 +3597,7 @@
       <c r="I93" t="n">
         <v>497</v>
       </c>
-      <c r="J93" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,9 +3636,7 @@
       <c r="I94" t="n">
         <v>497</v>
       </c>
-      <c r="J94" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,9 +3673,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,9 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,12 +3744,12 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>492.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,9 +3786,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4067,9 +3823,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,9 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,9 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,9 +3934,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4223,9 +3971,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,9 +4008,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4301,9 +4045,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,9 +4082,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,9 +4119,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,9 +4156,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,12 +4190,12 @@
         <v>-107400.75274412</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>492.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,9 +4232,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,9 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,9 +4306,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4613,9 +4343,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,9 +4380,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,9 +4417,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,9 +4454,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4769,9 +4491,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4805,20 +4525,16 @@
         <v>-106792.57094412</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>492.9</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -4844,17 +4560,11 @@
         <v>-101482.57094412</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4883,17 +4593,11 @@
         <v>-98042.57094411996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4922,17 +4626,11 @@
         <v>-98038.43574411995</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4961,17 +4659,11 @@
         <v>-95915.79694411995</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5000,23 +4692,17 @@
         <v>-95111.89024411995</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest GXC.xlsx
+++ b/BackTest/2020-01-26 BackTest GXC.xlsx
@@ -550,7 +550,7 @@
         <v>-70486.82488959999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-71314.74498959999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-71030.9293896</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-78238.01268960001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-78242.01268960001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-77989.43428960002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-77870.73938960001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2662,10 +2662,14 @@
         <v>-100451.7816896</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2700,7 +2704,9 @@
       <c r="I70" t="n">
         <v>488</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2739,7 +2745,9 @@
       <c r="I71" t="n">
         <v>487</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,7 +2786,9 @@
       <c r="I72" t="n">
         <v>487.9</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,7 +2827,9 @@
       <c r="I73" t="n">
         <v>489.4</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2856,7 +2868,9 @@
       <c r="I74" t="n">
         <v>489.4</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,7 +2909,9 @@
       <c r="I75" t="n">
         <v>489.4</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,7 +2950,9 @@
       <c r="I76" t="n">
         <v>492</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,7 +2991,9 @@
       <c r="I77" t="n">
         <v>492</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,7 +3032,9 @@
       <c r="I78" t="n">
         <v>496</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,7 +3073,9 @@
       <c r="I79" t="n">
         <v>496</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3114,9 @@
       <c r="I80" t="n">
         <v>493</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,7 +3155,9 @@
       <c r="I81" t="n">
         <v>494</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3196,9 @@
       <c r="I82" t="n">
         <v>494</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,7 +3237,9 @@
       <c r="I83" t="n">
         <v>494</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,7 +3278,9 @@
       <c r="I84" t="n">
         <v>495</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,7 +3319,9 @@
       <c r="I85" t="n">
         <v>490.1</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,12 +3355,12 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>495</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,12 +3394,12 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>496</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,12 +3433,12 @@
         <v>-105253.8458896</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>496</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,7 +3477,9 @@
       <c r="I89" t="n">
         <v>497</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,7 +3518,9 @@
       <c r="I90" t="n">
         <v>493.1</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,7 +3559,9 @@
       <c r="I91" t="n">
         <v>497</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,12 +3595,12 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>497</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,12 +3634,12 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>497</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,12 +3673,12 @@
         <v>-107480.6842896</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>497</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3673,7 +3715,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,7 +3754,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,12 +3790,12 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,7 +3832,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +3871,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,7 +3910,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +3949,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,7 +3988,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,7 +4027,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,7 +4183,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,7 +4222,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,12 +4258,12 @@
         <v>-107400.75274412</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,7 +4300,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,7 +4339,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,7 +4378,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,7 +4417,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,7 +4456,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,7 +4495,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,7 +4534,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4491,7 +4573,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,16 +4609,20 @@
         <v>-106792.57094412</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>490.1</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
       <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -4560,11 +4648,17 @@
         <v>-101482.57094412</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4593,11 +4687,17 @@
         <v>-98042.57094411996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4726,17 @@
         <v>-98038.43574411995</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4659,11 +4765,17 @@
         <v>-95915.79694411995</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4692,11 +4804,17 @@
         <v>-95111.89024411995</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-26 BackTest GXC.xlsx
+++ b/BackTest/2020-01-26 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7080.9812</v>
       </c>
       <c r="G2" t="n">
-        <v>-73177.22718959999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2688.4023</v>
       </c>
       <c r="G3" t="n">
-        <v>-70488.82488959999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5820</v>
       </c>
       <c r="G4" t="n">
-        <v>-70488.82488959999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>-70486.82488959999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>547.9201</v>
       </c>
       <c r="G6" t="n">
-        <v>-71034.74498959999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>280</v>
       </c>
       <c r="G7" t="n">
-        <v>-71314.74498959999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>67.191</v>
       </c>
       <c r="G8" t="n">
-        <v>-71381.9359896</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>535.1398</v>
       </c>
       <c r="G9" t="n">
-        <v>-71917.0757896</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>446.3088</v>
       </c>
       <c r="G10" t="n">
-        <v>-72363.3845896</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-72362.3845896</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2532.8169</v>
       </c>
       <c r="G12" t="n">
-        <v>-74895.2014896</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1412.0728</v>
       </c>
       <c r="G13" t="n">
-        <v>-74895.2014896</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2553.2056</v>
       </c>
       <c r="G14" t="n">
-        <v>-72341.9958896</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>-72343.9958896</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2620.5665</v>
       </c>
       <c r="G16" t="n">
-        <v>-69723.4293896</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1309.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-71032.9293896</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>818.699</v>
       </c>
       <c r="G18" t="n">
-        <v>-71032.9293896</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-71030.9293896</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>15.9168</v>
       </c>
       <c r="G20" t="n">
-        <v>-71046.84618960001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>284.0232</v>
       </c>
       <c r="G21" t="n">
-        <v>-71046.84618960001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>7191.1665</v>
       </c>
       <c r="G22" t="n">
-        <v>-78238.01268960001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>-78242.01268960001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>256.5784</v>
       </c>
       <c r="G24" t="n">
-        <v>-77985.43428960002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-77985.43428960002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-77985.43428960002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>-77989.43428960002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7497.3509</v>
       </c>
       <c r="G28" t="n">
-        <v>-70492.08338960001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7397.8451</v>
       </c>
       <c r="G29" t="n">
-        <v>-77889.92848960002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1300</v>
       </c>
       <c r="G30" t="n">
-        <v>-77889.92848960002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1575</v>
       </c>
       <c r="G31" t="n">
-        <v>-77889.92848960002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>98.8498</v>
       </c>
       <c r="G32" t="n">
-        <v>-77889.92848960002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>330</v>
       </c>
       <c r="G33" t="n">
-        <v>-77559.92848960002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>27.1598</v>
       </c>
       <c r="G34" t="n">
-        <v>-77587.08828960001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>283.6511</v>
       </c>
       <c r="G35" t="n">
-        <v>-77870.73938960001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>22429.0037</v>
       </c>
       <c r="G36" t="n">
-        <v>-100299.7430896</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>160</v>
       </c>
       <c r="G37" t="n">
-        <v>-100139.7430896</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1313.5049</v>
       </c>
       <c r="G38" t="n">
-        <v>-101453.2479896</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>-101457.2479896</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-101456.1479896</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>302.1462</v>
       </c>
       <c r="G41" t="n">
-        <v>-101154.0017896</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>-101154.0017896</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>-101156.0017896</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1.1</v>
       </c>
       <c r="G44" t="n">
-        <v>-101154.9017896</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>-101158.9017896</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1392.1737</v>
       </c>
       <c r="G46" t="n">
-        <v>-99766.7280896</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1048.1</v>
       </c>
       <c r="G47" t="n">
-        <v>-100814.8280896</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>599</v>
       </c>
       <c r="G48" t="n">
-        <v>-101413.8280896</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>75.02070000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-101338.8073896</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>-101342.8073896</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1315</v>
       </c>
       <c r="G51" t="n">
-        <v>-100027.8073896</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1265</v>
       </c>
       <c r="G52" t="n">
-        <v>-100027.8073896</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1.02</v>
       </c>
       <c r="G53" t="n">
-        <v>-100027.8073896</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1.02</v>
       </c>
       <c r="G54" t="n">
-        <v>-100027.8073896</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>60.1379</v>
       </c>
       <c r="G55" t="n">
-        <v>-100087.9452896</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1.1</v>
       </c>
       <c r="G56" t="n">
-        <v>-100086.8452896</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>5.7608</v>
       </c>
       <c r="G57" t="n">
-        <v>-100092.6060896</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1.1</v>
       </c>
       <c r="G58" t="n">
-        <v>-100091.5060896</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>380.5832</v>
       </c>
       <c r="G59" t="n">
-        <v>-100472.0892896</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>268.668</v>
       </c>
       <c r="G60" t="n">
-        <v>-100203.4212896</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>154.7128</v>
       </c>
       <c r="G61" t="n">
-        <v>-100048.7084896</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>270</v>
       </c>
       <c r="G62" t="n">
-        <v>-100318.7084896</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>44.6925</v>
       </c>
       <c r="G63" t="n">
-        <v>-100363.4009896</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>11.1</v>
       </c>
       <c r="G64" t="n">
-        <v>-100352.3009896</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10.9</v>
       </c>
       <c r="G65" t="n">
-        <v>-100363.2009896</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2256.3362</v>
       </c>
       <c r="G66" t="n">
-        <v>-100363.2009896</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-100373.2009896</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>26.5807</v>
       </c>
       <c r="G68" t="n">
-        <v>-100399.7816896</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,22 +2453,15 @@
         <v>52</v>
       </c>
       <c r="G69" t="n">
-        <v>-100451.7816896</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2696,1154 +2483,1015 @@
         <v>47.7465</v>
       </c>
       <c r="G70" t="n">
-        <v>-100499.5281896</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="D71" t="n">
         <v>488</v>
       </c>
-      <c r="J70" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="E71" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4063.772</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>36.585</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1585.1121</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="I74" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>492</v>
+      </c>
+      <c r="C75" t="n">
+        <v>492</v>
+      </c>
+      <c r="D75" t="n">
+        <v>492</v>
+      </c>
+      <c r="E75" t="n">
+        <v>492</v>
+      </c>
+      <c r="F75" t="n">
+        <v>341.8686</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>492</v>
+      </c>
+      <c r="C76" t="n">
+        <v>492</v>
+      </c>
+      <c r="D76" t="n">
+        <v>492</v>
+      </c>
+      <c r="E76" t="n">
+        <v>492</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29.0141</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>492</v>
+      </c>
+      <c r="I76" t="n">
+        <v>489.4</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>496</v>
+      </c>
+      <c r="C77" t="n">
+        <v>496</v>
+      </c>
+      <c r="D77" t="n">
+        <v>496</v>
+      </c>
+      <c r="E77" t="n">
+        <v>496</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>492</v>
+      </c>
+      <c r="I77" t="n">
+        <v>492</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>496</v>
+      </c>
+      <c r="C78" t="n">
+        <v>496</v>
+      </c>
+      <c r="D78" t="n">
+        <v>496</v>
+      </c>
+      <c r="E78" t="n">
+        <v>496</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>496</v>
+      </c>
+      <c r="I78" t="n">
+        <v>492</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>494</v>
+      </c>
+      <c r="C79" t="n">
+        <v>493</v>
+      </c>
+      <c r="D79" t="n">
+        <v>494</v>
+      </c>
+      <c r="E79" t="n">
+        <v>486.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10231.4796</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>496</v>
+      </c>
+      <c r="I79" t="n">
+        <v>492</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="C71" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>488</v>
-      </c>
-      <c r="E71" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4063.772</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-96435.7561896</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>487</v>
-      </c>
-      <c r="J71" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>494</v>
+      </c>
+      <c r="C80" t="n">
+        <v>494</v>
+      </c>
+      <c r="D80" t="n">
+        <v>494</v>
+      </c>
+      <c r="E80" t="n">
+        <v>494</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>493</v>
+      </c>
+      <c r="I80" t="n">
+        <v>492</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="D72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="E72" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-95135.7561896</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>494</v>
+      </c>
+      <c r="C81" t="n">
+        <v>494</v>
+      </c>
+      <c r="D81" t="n">
+        <v>494</v>
+      </c>
+      <c r="E81" t="n">
+        <v>494</v>
+      </c>
+      <c r="F81" t="n">
+        <v>651.1953</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>494</v>
+      </c>
+      <c r="I81" t="n">
+        <v>492</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="C73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="D73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="E73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>36.585</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-95135.7561896</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>494</v>
+      </c>
+      <c r="C82" t="n">
+        <v>494</v>
+      </c>
+      <c r="D82" t="n">
+        <v>494</v>
+      </c>
+      <c r="E82" t="n">
+        <v>494</v>
+      </c>
+      <c r="F82" t="n">
+        <v>68.5513</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>494</v>
+      </c>
+      <c r="I82" t="n">
+        <v>492</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="C74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="D74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="E74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1585.1121</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-95135.7561896</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>495</v>
+      </c>
+      <c r="C83" t="n">
+        <v>495</v>
+      </c>
+      <c r="D83" t="n">
+        <v>495</v>
+      </c>
+      <c r="E83" t="n">
+        <v>495</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>492</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>235.0787</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
         <v>492</v>
       </c>
-      <c r="C75" t="n">
-        <v>492</v>
-      </c>
-      <c r="D75" t="n">
-        <v>492</v>
-      </c>
-      <c r="E75" t="n">
-        <v>492</v>
-      </c>
-      <c r="F75" t="n">
-        <v>341.8686</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-94793.8875896</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>489.4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>495</v>
+      </c>
+      <c r="C85" t="n">
+        <v>495</v>
+      </c>
+      <c r="D85" t="n">
+        <v>495</v>
+      </c>
+      <c r="E85" t="n">
+        <v>495</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
         <v>492</v>
       </c>
-      <c r="C76" t="n">
-        <v>492</v>
-      </c>
-      <c r="D76" t="n">
-        <v>492</v>
-      </c>
-      <c r="E76" t="n">
-        <v>492</v>
-      </c>
-      <c r="F76" t="n">
-        <v>29.0141</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-94793.8875896</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>492</v>
-      </c>
-      <c r="J76" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>496</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C86" t="n">
         <v>496</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D86" t="n">
         <v>496</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E86" t="n">
         <v>496</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F86" t="n">
         <v>1.1</v>
       </c>
-      <c r="G77" t="n">
-        <v>-94792.78758959999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
         <v>492</v>
       </c>
-      <c r="J77" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>496</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C87" t="n">
         <v>496</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D87" t="n">
         <v>496</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E87" t="n">
         <v>496</v>
       </c>
-      <c r="F78" t="n">
-        <v>5</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-94792.78758959999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>496</v>
-      </c>
-      <c r="J78" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="F87" t="n">
+        <v>1295</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>492</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>494</v>
-      </c>
-      <c r="C79" t="n">
-        <v>493</v>
-      </c>
-      <c r="D79" t="n">
-        <v>494</v>
-      </c>
-      <c r="E79" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>10231.4796</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-105024.2671896</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>496</v>
-      </c>
-      <c r="J79" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>497</v>
+      </c>
+      <c r="C88" t="n">
+        <v>497</v>
+      </c>
+      <c r="D88" t="n">
+        <v>497</v>
+      </c>
+      <c r="E88" t="n">
+        <v>497</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>492</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>494</v>
-      </c>
-      <c r="C80" t="n">
-        <v>494</v>
-      </c>
-      <c r="D80" t="n">
-        <v>494</v>
-      </c>
-      <c r="E80" t="n">
-        <v>494</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-105023.1671896</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>493</v>
-      </c>
-      <c r="J80" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2228.8484</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>492</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>494</v>
-      </c>
-      <c r="C81" t="n">
-        <v>494</v>
-      </c>
-      <c r="D81" t="n">
-        <v>494</v>
-      </c>
-      <c r="E81" t="n">
-        <v>494</v>
-      </c>
-      <c r="F81" t="n">
-        <v>651.1953</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-105023.1671896</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>494</v>
-      </c>
-      <c r="J81" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>497</v>
+      </c>
+      <c r="C90" t="n">
+        <v>497</v>
+      </c>
+      <c r="D90" t="n">
+        <v>497</v>
+      </c>
+      <c r="E90" t="n">
+        <v>497</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>492</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>494</v>
-      </c>
-      <c r="C82" t="n">
-        <v>494</v>
-      </c>
-      <c r="D82" t="n">
-        <v>494</v>
-      </c>
-      <c r="E82" t="n">
-        <v>494</v>
-      </c>
-      <c r="F82" t="n">
-        <v>68.5513</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-105023.1671896</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>494</v>
-      </c>
-      <c r="J82" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>497</v>
+      </c>
+      <c r="C91" t="n">
+        <v>497</v>
+      </c>
+      <c r="D91" t="n">
+        <v>497</v>
+      </c>
+      <c r="E91" t="n">
+        <v>497</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1391.7794</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>492</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>495</v>
-      </c>
-      <c r="C83" t="n">
-        <v>495</v>
-      </c>
-      <c r="D83" t="n">
-        <v>495</v>
-      </c>
-      <c r="E83" t="n">
-        <v>495</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-105022.0671896</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>494</v>
-      </c>
-      <c r="J83" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>497</v>
+      </c>
+      <c r="C92" t="n">
+        <v>497</v>
+      </c>
+      <c r="D92" t="n">
+        <v>497</v>
+      </c>
+      <c r="E92" t="n">
+        <v>497</v>
+      </c>
+      <c r="F92" t="n">
+        <v>968.4248</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>492</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>235.0787</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-105257.1458896</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>495</v>
-      </c>
-      <c r="J84" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>497</v>
+      </c>
+      <c r="C93" t="n">
+        <v>497</v>
+      </c>
+      <c r="D93" t="n">
+        <v>497</v>
+      </c>
+      <c r="E93" t="n">
+        <v>497</v>
+      </c>
+      <c r="F93" t="n">
+        <v>76.6858</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>492</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>495</v>
-      </c>
-      <c r="C85" t="n">
-        <v>495</v>
-      </c>
-      <c r="D85" t="n">
-        <v>495</v>
-      </c>
-      <c r="E85" t="n">
-        <v>495</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-105256.0458896</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>492</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>496</v>
-      </c>
-      <c r="C86" t="n">
-        <v>496</v>
-      </c>
-      <c r="D86" t="n">
-        <v>496</v>
-      </c>
-      <c r="E86" t="n">
-        <v>496</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-105254.9458896</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>598.44404548</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>492</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>496</v>
-      </c>
-      <c r="C87" t="n">
-        <v>496</v>
-      </c>
-      <c r="D87" t="n">
-        <v>496</v>
-      </c>
-      <c r="E87" t="n">
-        <v>496</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1295</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-105254.9458896</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>496.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>496.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>693.4221</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>492</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>497</v>
-      </c>
-      <c r="C88" t="n">
-        <v>497</v>
-      </c>
-      <c r="D88" t="n">
-        <v>497</v>
-      </c>
-      <c r="E88" t="n">
-        <v>497</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-105253.8458896</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2035.9138</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>492</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2228.8484</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-107482.6942896</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>497</v>
-      </c>
-      <c r="J89" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1399.9969</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>492</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>497</v>
-      </c>
-      <c r="C90" t="n">
-        <v>497</v>
-      </c>
-      <c r="D90" t="n">
-        <v>497</v>
-      </c>
-      <c r="E90" t="n">
-        <v>497</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>493.1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>497</v>
-      </c>
-      <c r="C91" t="n">
-        <v>497</v>
-      </c>
-      <c r="D91" t="n">
-        <v>497</v>
-      </c>
-      <c r="E91" t="n">
-        <v>497</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1391.7794</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>497</v>
-      </c>
-      <c r="J91" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>497</v>
-      </c>
-      <c r="C92" t="n">
-        <v>497</v>
-      </c>
-      <c r="D92" t="n">
-        <v>497</v>
-      </c>
-      <c r="E92" t="n">
-        <v>497</v>
-      </c>
-      <c r="F92" t="n">
-        <v>968.4248</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>497</v>
-      </c>
-      <c r="C93" t="n">
-        <v>497</v>
-      </c>
-      <c r="D93" t="n">
-        <v>497</v>
-      </c>
-      <c r="E93" t="n">
-        <v>497</v>
-      </c>
-      <c r="F93" t="n">
-        <v>76.6858</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-107481.6842896</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>501.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-107480.6842896</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>598.44404548</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>496.1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="D96" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>496.1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>693.4221</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="E97" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2035.9138</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="C98" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1399.9969</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3865,24 +3513,21 @@
         <v>899</v>
       </c>
       <c r="G99" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>492</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1.01390243902439</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3904,24 +3549,15 @@
         <v>1240</v>
       </c>
       <c r="G100" t="n">
-        <v>-106882.24024412</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3943,24 +3579,15 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-106881.24024412</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3982,24 +3609,15 @@
         <v>146.9265</v>
       </c>
       <c r="G102" t="n">
-        <v>-107028.16674412</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4021,24 +3639,15 @@
         <v>371.4138</v>
       </c>
       <c r="G103" t="n">
-        <v>-107399.58054412</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4060,24 +3669,15 @@
         <v>1300.3901</v>
       </c>
       <c r="G104" t="n">
-        <v>-107399.58054412</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4099,24 +3699,15 @@
         <v>96.14879999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-107399.58054412</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4138,24 +3729,15 @@
         <v>1998.9069</v>
       </c>
       <c r="G106" t="n">
-        <v>-107399.58054412</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4177,24 +3759,15 @@
         <v>77.0231</v>
       </c>
       <c r="G107" t="n">
-        <v>-107399.58054412</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4216,24 +3789,15 @@
         <v>2.1722</v>
       </c>
       <c r="G108" t="n">
-        <v>-107401.75274412</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4255,24 +3819,15 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-107400.75274412</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4294,24 +3849,15 @@
         <v>2541.3073</v>
       </c>
       <c r="G110" t="n">
-        <v>-107400.75274412</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4333,24 +3879,15 @@
         <v>2049.03</v>
       </c>
       <c r="G111" t="n">
-        <v>-107400.75274412</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4372,24 +3909,15 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>-107399.75274412</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4411,24 +3939,15 @@
         <v>606.1818</v>
       </c>
       <c r="G113" t="n">
-        <v>-106793.57094412</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4450,24 +3969,15 @@
         <v>340</v>
       </c>
       <c r="G114" t="n">
-        <v>-106793.57094412</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4489,24 +3999,15 @@
         <v>885.9411</v>
       </c>
       <c r="G115" t="n">
-        <v>-106793.57094412</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4528,24 +4029,15 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>-106792.57094412</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4567,24 +4059,15 @@
         <v>4.13520458</v>
       </c>
       <c r="G117" t="n">
-        <v>-106792.57094412</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4606,24 +4089,15 @@
         <v>2640</v>
       </c>
       <c r="G118" t="n">
-        <v>-106792.57094412</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4645,24 +4119,15 @@
         <v>5310</v>
       </c>
       <c r="G119" t="n">
-        <v>-101482.57094412</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4684,24 +4149,15 @@
         <v>3440</v>
       </c>
       <c r="G120" t="n">
-        <v>-98042.57094411996</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4723,24 +4179,15 @@
         <v>4.1352</v>
       </c>
       <c r="G121" t="n">
-        <v>-98038.43574411995</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4762,24 +4209,15 @@
         <v>2122.6388</v>
       </c>
       <c r="G122" t="n">
-        <v>-95915.79694411995</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4801,24 +4239,15 @@
         <v>803.9067</v>
       </c>
       <c r="G123" t="n">
-        <v>-95111.89024411995</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
